--- a/Code/Results/Cases/Case_4_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016007573736931</v>
+        <v>1.045256624090203</v>
       </c>
       <c r="D2">
-        <v>1.03031624660127</v>
+        <v>1.046813730444513</v>
       </c>
       <c r="E2">
-        <v>1.031280300005158</v>
+        <v>1.058612995940742</v>
       </c>
       <c r="F2">
-        <v>1.033357758554988</v>
+        <v>1.06554800064603</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048072708838273</v>
+        <v>1.04154858850743</v>
       </c>
       <c r="J2">
-        <v>1.037719819700835</v>
+        <v>1.050317328946718</v>
       </c>
       <c r="K2">
-        <v>1.04136878649574</v>
+        <v>1.049578114640976</v>
       </c>
       <c r="L2">
-        <v>1.042320394826428</v>
+        <v>1.061344752243657</v>
       </c>
       <c r="M2">
-        <v>1.044371133915803</v>
+        <v>1.068260944868211</v>
       </c>
       <c r="N2">
-        <v>1.03919350087295</v>
+        <v>1.051808900026904</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.020721034435051</v>
+        <v>1.046247946365345</v>
       </c>
       <c r="D3">
-        <v>1.033820024962582</v>
+        <v>1.047567681846189</v>
       </c>
       <c r="E3">
-        <v>1.035808092259986</v>
+        <v>1.059626140512517</v>
       </c>
       <c r="F3">
-        <v>1.038446903797591</v>
+        <v>1.066702461307368</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049505806118475</v>
+        <v>1.041796267816633</v>
       </c>
       <c r="J3">
-        <v>1.040662331000602</v>
+        <v>1.050956032849577</v>
       </c>
       <c r="K3">
-        <v>1.044037714019309</v>
+        <v>1.05014393438908</v>
       </c>
       <c r="L3">
-        <v>1.046002419378625</v>
+        <v>1.062171459722927</v>
       </c>
       <c r="M3">
-        <v>1.048610392892699</v>
+        <v>1.069229978555822</v>
       </c>
       <c r="N3">
-        <v>1.042140190876261</v>
+        <v>1.052448510962565</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.023707007896765</v>
+        <v>1.04688969576673</v>
       </c>
       <c r="D4">
-        <v>1.036042110933062</v>
+        <v>1.048055714400943</v>
       </c>
       <c r="E4">
-        <v>1.038681664766402</v>
+        <v>1.060282415686127</v>
       </c>
       <c r="F4">
-        <v>1.041677655187141</v>
+        <v>1.067450485322019</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050404683871966</v>
+        <v>1.0419554725832</v>
       </c>
       <c r="J4">
-        <v>1.042523130221216</v>
+        <v>1.05136899996446</v>
       </c>
       <c r="K4">
-        <v>1.045724161702761</v>
+        <v>1.050509568929103</v>
       </c>
       <c r="L4">
-        <v>1.04833461816707</v>
+        <v>1.062706484822704</v>
       </c>
       <c r="M4">
-        <v>1.051297801362966</v>
+        <v>1.069857433097031</v>
       </c>
       <c r="N4">
-        <v>1.044003632645205</v>
+        <v>1.052862064538119</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.024947569530466</v>
+        <v>1.04715955807125</v>
       </c>
       <c r="D5">
-        <v>1.03696584060599</v>
+        <v>1.048260924411808</v>
       </c>
       <c r="E5">
-        <v>1.039876756190115</v>
+        <v>1.060558481420158</v>
       </c>
       <c r="F5">
-        <v>1.043021532835766</v>
+        <v>1.067765196155145</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050775943480834</v>
+        <v>1.042022148106349</v>
       </c>
       <c r="J5">
-        <v>1.043295405965743</v>
+        <v>1.051542534933536</v>
       </c>
       <c r="K5">
-        <v>1.046423744164719</v>
+        <v>1.050663164114864</v>
       </c>
       <c r="L5">
-        <v>1.049303446704767</v>
+        <v>1.062931430410937</v>
       </c>
       <c r="M5">
-        <v>1.052414742271739</v>
+        <v>1.070121316246855</v>
       </c>
       <c r="N5">
-        <v>1.04477700510987</v>
+        <v>1.053035845946756</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.025155016805431</v>
+        <v>1.047204873283448</v>
       </c>
       <c r="D6">
-        <v>1.037120337084957</v>
+        <v>1.048295382460743</v>
       </c>
       <c r="E6">
-        <v>1.04007667143763</v>
+        <v>1.060604843884801</v>
       </c>
       <c r="F6">
-        <v>1.043246351681121</v>
+        <v>1.067818051639942</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050837895902191</v>
+        <v>1.042033328306691</v>
       </c>
       <c r="J6">
-        <v>1.043424497323244</v>
+        <v>1.051571667723153</v>
       </c>
       <c r="K6">
-        <v>1.046540664402291</v>
+        <v>1.050688946510774</v>
       </c>
       <c r="L6">
-        <v>1.049465447177772</v>
+        <v>1.062969200983289</v>
       </c>
       <c r="M6">
-        <v>1.052601541880127</v>
+        <v>1.070165629313197</v>
       </c>
       <c r="N6">
-        <v>1.044906279791905</v>
+        <v>1.053065020108277</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.023723641535461</v>
+        <v>1.046893301402109</v>
       </c>
       <c r="D7">
-        <v>1.036054494393615</v>
+        <v>1.048058456266698</v>
       </c>
       <c r="E7">
-        <v>1.038697683912245</v>
+        <v>1.060286103831992</v>
       </c>
       <c r="F7">
-        <v>1.041695667712432</v>
+        <v>1.067454689555039</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050409670477503</v>
+        <v>1.041956364503877</v>
       </c>
       <c r="J7">
-        <v>1.042533488281591</v>
+        <v>1.051371319048068</v>
       </c>
       <c r="K7">
-        <v>1.045733546104957</v>
+        <v>1.050511621738212</v>
       </c>
       <c r="L7">
-        <v>1.048347608852428</v>
+        <v>1.06270949047466</v>
       </c>
       <c r="M7">
-        <v>1.051312775834561</v>
+        <v>1.069860958719291</v>
       </c>
       <c r="N7">
-        <v>1.044014005415214</v>
+        <v>1.052864386915092</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.017614103105046</v>
+        <v>1.045591584238212</v>
       </c>
       <c r="D8">
-        <v>1.031509924379087</v>
+        <v>1.04706849494808</v>
       </c>
       <c r="E8">
-        <v>1.03282243619698</v>
+        <v>1.058955246979747</v>
       </c>
       <c r="F8">
-        <v>1.035090908208782</v>
+        <v>1.065937946477279</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048563028072279</v>
+        <v>1.041632512240036</v>
       </c>
       <c r="J8">
-        <v>1.038723409987126</v>
+        <v>1.05053324725423</v>
       </c>
       <c r="K8">
-        <v>1.042279341348689</v>
+        <v>1.0497694369043</v>
       </c>
       <c r="L8">
-        <v>1.043575429592283</v>
+        <v>1.06162412293622</v>
       </c>
       <c r="M8">
-        <v>1.045815638345738</v>
+        <v>1.068588346066343</v>
       </c>
       <c r="N8">
-        <v>1.040198516372548</v>
+        <v>1.052025124963178</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.006331388975538</v>
+        <v>1.043300088605116</v>
       </c>
       <c r="D9">
-        <v>1.023139299416586</v>
+        <v>1.04532544140459</v>
       </c>
       <c r="E9">
-        <v>1.022015202238728</v>
+        <v>1.056615517756782</v>
       </c>
       <c r="F9">
-        <v>1.022948101109144</v>
+        <v>1.06327301206961</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045082746106141</v>
+        <v>1.04105373661432</v>
       </c>
       <c r="J9">
-        <v>1.031662533697616</v>
+        <v>1.049054052121931</v>
       </c>
       <c r="K9">
-        <v>1.035867790503202</v>
+        <v>1.048457895501874</v>
       </c>
       <c r="L9">
-        <v>1.034760917885151</v>
+        <v>1.059712279787817</v>
       </c>
       <c r="M9">
-        <v>1.035679518522209</v>
+        <v>1.066349115284687</v>
       </c>
       <c r="N9">
-        <v>1.033127612828813</v>
+        <v>1.050543829204125</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9984214275853345</v>
+        <v>1.041773989578015</v>
       </c>
       <c r="D10">
-        <v>1.017289561007854</v>
+        <v>1.044164389510476</v>
       </c>
       <c r="E10">
-        <v>1.01446942371499</v>
+        <v>1.055059370950046</v>
       </c>
       <c r="F10">
-        <v>1.014472695851035</v>
+        <v>1.061501630812014</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04259770728715</v>
+        <v>1.040662454188921</v>
       </c>
       <c r="J10">
-        <v>1.026697816492085</v>
+        <v>1.048066333549057</v>
       </c>
       <c r="K10">
-        <v>1.031353509692174</v>
+        <v>1.04758106907214</v>
       </c>
       <c r="L10">
-        <v>1.028582251985358</v>
+        <v>1.058438226760607</v>
       </c>
       <c r="M10">
-        <v>1.028585467203762</v>
+        <v>1.064858522830827</v>
       </c>
       <c r="N10">
-        <v>1.028155845155389</v>
+        <v>1.049554707957586</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9948943565721539</v>
+        <v>1.041113546650917</v>
       </c>
       <c r="D11">
-        <v>1.01468646132463</v>
+        <v>1.04366188529421</v>
       </c>
       <c r="E11">
-        <v>1.011112503822371</v>
+        <v>1.054386420047686</v>
       </c>
       <c r="F11">
-        <v>1.010702562141541</v>
+        <v>1.060735850697958</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041479454956014</v>
+        <v>1.040491739818414</v>
       </c>
       <c r="J11">
-        <v>1.024481089669545</v>
+        <v>1.047638269367153</v>
       </c>
       <c r="K11">
-        <v>1.029336627263456</v>
+        <v>1.047200815444883</v>
       </c>
       <c r="L11">
-        <v>1.025827853872681</v>
+        <v>1.057886674159865</v>
       </c>
       <c r="M11">
-        <v>1.025425427353492</v>
+        <v>1.064213613120532</v>
       </c>
       <c r="N11">
-        <v>1.025935970326499</v>
+        <v>1.049126035875443</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9935680022826949</v>
+        <v>1.040868284237976</v>
       </c>
       <c r="D12">
-        <v>1.013708444439194</v>
+        <v>1.043475269564692</v>
       </c>
       <c r="E12">
-        <v>1.009851341274215</v>
+        <v>1.054136587436701</v>
       </c>
       <c r="F12">
-        <v>1.009286181925052</v>
+        <v>1.060451592368502</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.041057456741894</v>
+        <v>1.040428135868493</v>
       </c>
       <c r="J12">
-        <v>1.023647092566677</v>
+        <v>1.047479211244053</v>
       </c>
       <c r="K12">
-        <v>1.028577641924869</v>
+        <v>1.047059485360902</v>
       </c>
       <c r="L12">
-        <v>1.024792207927516</v>
+        <v>1.057681821495865</v>
       </c>
       <c r="M12">
-        <v>1.024237609914268</v>
+        <v>1.063974144370618</v>
       </c>
       <c r="N12">
-        <v>1.025100788852084</v>
+        <v>1.048966751871564</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9938532603224735</v>
+        <v>1.040920891343439</v>
       </c>
       <c r="D13">
-        <v>1.01391874480706</v>
+        <v>1.04351529759783</v>
       </c>
       <c r="E13">
-        <v>1.010122523395623</v>
+        <v>1.054190171429878</v>
       </c>
       <c r="F13">
-        <v>1.009590739279955</v>
+        <v>1.060512558301362</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041148281640533</v>
+        <v>1.040441787862706</v>
       </c>
       <c r="J13">
-        <v>1.023826476912429</v>
+        <v>1.047513332280393</v>
       </c>
       <c r="K13">
-        <v>1.028740899665415</v>
+        <v>1.047089805070851</v>
       </c>
       <c r="L13">
-        <v>1.025014936292516</v>
+        <v>1.057725762242938</v>
       </c>
       <c r="M13">
-        <v>1.024493049144672</v>
+        <v>1.064025507630977</v>
       </c>
       <c r="N13">
-        <v>1.025280427944183</v>
+        <v>1.049000921363689</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9947850566220692</v>
+        <v>1.041093272050037</v>
       </c>
       <c r="D14">
-        <v>1.014605848249564</v>
+        <v>1.043646458826191</v>
       </c>
       <c r="E14">
-        <v>1.011008551324283</v>
+        <v>1.054365766124566</v>
       </c>
       <c r="F14">
-        <v>1.010585815399869</v>
+        <v>1.060712350009697</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041444709429339</v>
+        <v>1.040486486232403</v>
       </c>
       <c r="J14">
-        <v>1.024412370861236</v>
+        <v>1.047625122713726</v>
       </c>
       <c r="K14">
-        <v>1.029274092667355</v>
+        <v>1.047189134827132</v>
       </c>
       <c r="L14">
-        <v>1.025742506927087</v>
+        <v>1.057869740594507</v>
       </c>
       <c r="M14">
-        <v>1.025327533059925</v>
+        <v>1.064193816936801</v>
       </c>
       <c r="N14">
-        <v>1.0258671539296</v>
+        <v>1.04911287055226</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9953569860729017</v>
+        <v>1.0411994888527</v>
       </c>
       <c r="D15">
-        <v>1.01502770531647</v>
+        <v>1.04372727647675</v>
       </c>
       <c r="E15">
-        <v>1.011552548787933</v>
+        <v>1.054473973226239</v>
       </c>
       <c r="F15">
-        <v>1.011196767613025</v>
+        <v>1.060835472996158</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041626460942469</v>
+        <v>1.040514000802166</v>
       </c>
       <c r="J15">
-        <v>1.024771937083293</v>
+        <v>1.047693993076972</v>
       </c>
       <c r="K15">
-        <v>1.029601293388961</v>
+        <v>1.047250323660221</v>
       </c>
       <c r="L15">
-        <v>1.026189104614825</v>
+        <v>1.057958452875779</v>
       </c>
       <c r="M15">
-        <v>1.025839801765749</v>
+        <v>1.064297528389674</v>
       </c>
       <c r="N15">
-        <v>1.026227230776935</v>
+        <v>1.049181838719322</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9986532817567506</v>
+        <v>1.041817828771172</v>
       </c>
       <c r="D16">
-        <v>1.017460794640196</v>
+        <v>1.04419774416368</v>
       </c>
       <c r="E16">
-        <v>1.014690257860495</v>
+        <v>1.055104050874677</v>
       </c>
       <c r="F16">
-        <v>1.014720718007807</v>
+        <v>1.061552479256115</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.042671008567222</v>
+        <v>1.040673756855712</v>
       </c>
       <c r="J16">
-        <v>1.026843476790148</v>
+        <v>1.04809473488056</v>
       </c>
       <c r="K16">
-        <v>1.0314860131024</v>
+        <v>1.047606293032174</v>
       </c>
       <c r="L16">
-        <v>1.028763331774808</v>
+        <v>1.058474834067507</v>
       </c>
       <c r="M16">
-        <v>1.028793263945892</v>
+        <v>1.064901334486494</v>
       </c>
       <c r="N16">
-        <v>1.028301712307783</v>
+        <v>1.049583149622237</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.00069302465225</v>
+        <v>1.042205795739118</v>
       </c>
       <c r="D17">
-        <v>1.018967840445104</v>
+        <v>1.044492920654705</v>
       </c>
       <c r="E17">
-        <v>1.01663393925004</v>
+        <v>1.05549951544116</v>
       </c>
       <c r="F17">
-        <v>1.016903732557589</v>
+        <v>1.06200257041154</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043314727543154</v>
+        <v>1.040773623351147</v>
       </c>
       <c r="J17">
-        <v>1.028124596970462</v>
+        <v>1.048346009364312</v>
       </c>
       <c r="K17">
-        <v>1.032651272122013</v>
+        <v>1.047829427737571</v>
       </c>
       <c r="L17">
-        <v>1.03035646846636</v>
+        <v>1.058798778950752</v>
       </c>
       <c r="M17">
-        <v>1.030621730365794</v>
+        <v>1.065280227315286</v>
       </c>
       <c r="N17">
-        <v>1.0295846518257</v>
+        <v>1.049834780944577</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.00187299568446</v>
+        <v>1.042432125802436</v>
       </c>
       <c r="D18">
-        <v>1.019840149723747</v>
+        <v>1.044665115105105</v>
       </c>
       <c r="E18">
-        <v>1.017759072676536</v>
+        <v>1.055730267232905</v>
       </c>
       <c r="F18">
-        <v>1.018167443683256</v>
+        <v>1.062265220559288</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043686145385256</v>
+        <v>1.04083174964299</v>
       </c>
       <c r="J18">
-        <v>1.028865429765124</v>
+        <v>1.048492537260649</v>
       </c>
       <c r="K18">
-        <v>1.033324984199148</v>
+        <v>1.047959522249367</v>
       </c>
       <c r="L18">
-        <v>1.031278144208308</v>
+        <v>1.058987742146691</v>
       </c>
       <c r="M18">
-        <v>1.031679782657329</v>
+        <v>1.065501279886083</v>
       </c>
       <c r="N18">
-        <v>1.030326536687905</v>
+        <v>1.049981516927334</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.002273703800415</v>
+        <v>1.042509304519496</v>
       </c>
       <c r="D19">
-        <v>1.020136460726536</v>
+        <v>1.04472383283868</v>
       </c>
       <c r="E19">
-        <v>1.018141281583834</v>
+        <v>1.0558089618645</v>
       </c>
       <c r="F19">
-        <v>1.018596734475964</v>
+        <v>1.062354797749288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043812110268042</v>
+        <v>1.040851548141615</v>
       </c>
       <c r="J19">
-        <v>1.029116961037261</v>
+        <v>1.048542493324681</v>
       </c>
       <c r="K19">
-        <v>1.033553705197229</v>
+        <v>1.048003871571051</v>
       </c>
       <c r="L19">
-        <v>1.031591146737471</v>
+        <v>1.059052175673585</v>
       </c>
       <c r="M19">
-        <v>1.032039138617574</v>
+        <v>1.065576661706515</v>
       </c>
       <c r="N19">
-        <v>1.0305784251633</v>
+        <v>1.050031543934707</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00047519718409</v>
+        <v>1.042164166882183</v>
       </c>
       <c r="D20">
-        <v>1.018806848313693</v>
+        <v>1.044461248626096</v>
       </c>
       <c r="E20">
-        <v>1.016426294005442</v>
+        <v>1.055457077143754</v>
       </c>
       <c r="F20">
-        <v>1.016670515653001</v>
+        <v>1.061954267518311</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04324608377162</v>
+        <v>1.040762921460419</v>
       </c>
       <c r="J20">
-        <v>1.027987813058783</v>
+        <v>1.048319053737782</v>
       </c>
       <c r="K20">
-        <v>1.032526871112925</v>
+        <v>1.047805493303535</v>
       </c>
       <c r="L20">
-        <v>1.030186328080341</v>
+        <v>1.058764021525155</v>
       </c>
       <c r="M20">
-        <v>1.030426433836548</v>
+        <v>1.065239570444398</v>
       </c>
       <c r="N20">
-        <v>1.029447673665176</v>
+        <v>1.049807787037966</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9945111219484331</v>
+        <v>1.041042508694773</v>
       </c>
       <c r="D21">
-        <v>1.014403824919608</v>
+        <v>1.043607834093606</v>
       </c>
       <c r="E21">
-        <v>1.01074803835725</v>
+        <v>1.054314054234775</v>
       </c>
       <c r="F21">
-        <v>1.01029323933401</v>
+        <v>1.060653511180836</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041357604256249</v>
+        <v>1.040473329003202</v>
       </c>
       <c r="J21">
-        <v>1.024240137052419</v>
+        <v>1.047592204760857</v>
       </c>
       <c r="K21">
-        <v>1.029117355925538</v>
+        <v>1.047159887086164</v>
       </c>
       <c r="L21">
-        <v>1.025528607318387</v>
+        <v>1.057827342043906</v>
       </c>
       <c r="M21">
-        <v>1.025082192391727</v>
+        <v>1.064144251846062</v>
       </c>
       <c r="N21">
-        <v>1.025694675529019</v>
+        <v>1.049079905852123</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9906667867810151</v>
+        <v>1.040337598864458</v>
       </c>
       <c r="D22">
-        <v>1.011570875836477</v>
+        <v>1.043071471304322</v>
       </c>
       <c r="E22">
-        <v>1.007094989465758</v>
+        <v>1.05359615036186</v>
       </c>
       <c r="F22">
-        <v>1.006190598860659</v>
+        <v>1.059836753214341</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040131727601383</v>
+        <v>1.040290134035522</v>
       </c>
       <c r="J22">
-        <v>1.021822160943165</v>
+        <v>1.047134882004911</v>
       </c>
       <c r="K22">
-        <v>1.02691654435995</v>
+        <v>1.046753465972763</v>
       </c>
       <c r="L22">
-        <v>1.02252719146357</v>
+        <v>1.0572385218787</v>
       </c>
       <c r="M22">
-        <v>1.021640408299387</v>
+        <v>1.063456041289264</v>
       </c>
       <c r="N22">
-        <v>1.023273265616345</v>
+        <v>1.048621933645408</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9927140228059742</v>
+        <v>1.040711254387806</v>
       </c>
       <c r="D23">
-        <v>1.013079001476431</v>
+        <v>1.043355786923816</v>
       </c>
       <c r="E23">
-        <v>1.009039681040128</v>
+        <v>1.053976652591557</v>
       </c>
       <c r="F23">
-        <v>1.008374629035964</v>
+        <v>1.060269629686126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040785340422027</v>
+        <v>1.040387354919737</v>
       </c>
       <c r="J23">
-        <v>1.023110013458449</v>
+        <v>1.047377348026516</v>
       </c>
       <c r="K23">
-        <v>1.028088821620511</v>
+        <v>1.046968964998513</v>
       </c>
       <c r="L23">
-        <v>1.024125448678435</v>
+        <v>1.05755065627896</v>
       </c>
       <c r="M23">
-        <v>1.023472977269968</v>
+        <v>1.063820831047177</v>
       </c>
       <c r="N23">
-        <v>1.024562947029919</v>
+        <v>1.048864743996575</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.000573654185717</v>
+        <v>1.042182977060983</v>
       </c>
       <c r="D24">
-        <v>1.018879614468668</v>
+        <v>1.044475559781503</v>
       </c>
       <c r="E24">
-        <v>1.016520146419325</v>
+        <v>1.055476252924032</v>
       </c>
       <c r="F24">
-        <v>1.016775925946023</v>
+        <v>1.061976093146985</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043277113439751</v>
+        <v>1.040767757567762</v>
       </c>
       <c r="J24">
-        <v>1.028049639629661</v>
+        <v>1.04833123393713</v>
       </c>
       <c r="K24">
-        <v>1.032583100968615</v>
+        <v>1.047816308417635</v>
       </c>
       <c r="L24">
-        <v>1.030263230553822</v>
+        <v>1.058779726873703</v>
       </c>
       <c r="M24">
-        <v>1.030514706022674</v>
+        <v>1.065257941377287</v>
       </c>
       <c r="N24">
-        <v>1.029509588036877</v>
+        <v>1.049819984534594</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.009313506741756</v>
+        <v>1.043892220899341</v>
       </c>
       <c r="D25">
-        <v>1.025348795809974</v>
+        <v>1.045775892986519</v>
       </c>
       <c r="E25">
-        <v>1.024866476174037</v>
+        <v>1.05721974907675</v>
       </c>
       <c r="F25">
-        <v>1.026151136497615</v>
+        <v>1.063961039372963</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046010551964295</v>
+        <v>1.041204322769693</v>
       </c>
       <c r="J25">
-        <v>1.033531448695426</v>
+        <v>1.049436741622925</v>
       </c>
       <c r="K25">
-        <v>1.037565947848184</v>
+        <v>1.048797397413198</v>
       </c>
       <c r="L25">
-        <v>1.037090657474044</v>
+        <v>1.060206449519709</v>
       </c>
       <c r="M25">
-        <v>1.038356613894101</v>
+        <v>1.066927619317483</v>
       </c>
       <c r="N25">
-        <v>1.034999181900288</v>
+        <v>1.050927062168106</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_81/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_81/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.045256624090203</v>
+        <v>1.016007573736931</v>
       </c>
       <c r="D2">
-        <v>1.046813730444513</v>
+        <v>1.03031624660127</v>
       </c>
       <c r="E2">
-        <v>1.058612995940742</v>
+        <v>1.031280300005157</v>
       </c>
       <c r="F2">
-        <v>1.06554800064603</v>
+        <v>1.033357758554988</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04154858850743</v>
+        <v>1.048072708838273</v>
       </c>
       <c r="J2">
-        <v>1.050317328946718</v>
+        <v>1.037719819700835</v>
       </c>
       <c r="K2">
-        <v>1.049578114640976</v>
+        <v>1.04136878649574</v>
       </c>
       <c r="L2">
-        <v>1.061344752243657</v>
+        <v>1.042320394826428</v>
       </c>
       <c r="M2">
-        <v>1.068260944868211</v>
+        <v>1.044371133915803</v>
       </c>
       <c r="N2">
-        <v>1.051808900026904</v>
+        <v>1.039193500872949</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.046247946365345</v>
+        <v>1.020721034435051</v>
       </c>
       <c r="D3">
-        <v>1.047567681846189</v>
+        <v>1.033820024962582</v>
       </c>
       <c r="E3">
-        <v>1.059626140512517</v>
+        <v>1.035808092259986</v>
       </c>
       <c r="F3">
-        <v>1.066702461307368</v>
+        <v>1.03844690379759</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041796267816633</v>
+        <v>1.049505806118475</v>
       </c>
       <c r="J3">
-        <v>1.050956032849577</v>
+        <v>1.040662331000602</v>
       </c>
       <c r="K3">
-        <v>1.05014393438908</v>
+        <v>1.044037714019309</v>
       </c>
       <c r="L3">
-        <v>1.062171459722927</v>
+        <v>1.046002419378625</v>
       </c>
       <c r="M3">
-        <v>1.069229978555822</v>
+        <v>1.048610392892698</v>
       </c>
       <c r="N3">
-        <v>1.052448510962565</v>
+        <v>1.042140190876261</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.04688969576673</v>
+        <v>1.023707007896764</v>
       </c>
       <c r="D4">
-        <v>1.048055714400943</v>
+        <v>1.03604211093306</v>
       </c>
       <c r="E4">
-        <v>1.060282415686127</v>
+        <v>1.0386816647664</v>
       </c>
       <c r="F4">
-        <v>1.067450485322019</v>
+        <v>1.04167765518714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.0419554725832</v>
+        <v>1.050404683871965</v>
       </c>
       <c r="J4">
-        <v>1.05136899996446</v>
+        <v>1.042523130221215</v>
       </c>
       <c r="K4">
-        <v>1.050509568929103</v>
+        <v>1.04572416170276</v>
       </c>
       <c r="L4">
-        <v>1.062706484822704</v>
+        <v>1.048334618167069</v>
       </c>
       <c r="M4">
-        <v>1.069857433097031</v>
+        <v>1.051297801362965</v>
       </c>
       <c r="N4">
-        <v>1.052862064538119</v>
+        <v>1.044003632645204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.04715955807125</v>
+        <v>1.024947569530465</v>
       </c>
       <c r="D5">
-        <v>1.048260924411808</v>
+        <v>1.036965840605989</v>
       </c>
       <c r="E5">
-        <v>1.060558481420158</v>
+        <v>1.039876756190114</v>
       </c>
       <c r="F5">
-        <v>1.067765196155145</v>
+        <v>1.043021532835765</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042022148106349</v>
+        <v>1.050775943480834</v>
       </c>
       <c r="J5">
-        <v>1.051542534933536</v>
+        <v>1.043295405965742</v>
       </c>
       <c r="K5">
-        <v>1.050663164114864</v>
+        <v>1.046423744164718</v>
       </c>
       <c r="L5">
-        <v>1.062931430410937</v>
+        <v>1.049303446704766</v>
       </c>
       <c r="M5">
-        <v>1.070121316246855</v>
+        <v>1.052414742271738</v>
       </c>
       <c r="N5">
-        <v>1.053035845946756</v>
+        <v>1.044777005109869</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.047204873283448</v>
+        <v>1.02515501680543</v>
       </c>
       <c r="D6">
-        <v>1.048295382460743</v>
+        <v>1.037120337084956</v>
       </c>
       <c r="E6">
-        <v>1.060604843884801</v>
+        <v>1.040076671437629</v>
       </c>
       <c r="F6">
-        <v>1.067818051639942</v>
+        <v>1.04324635168112</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042033328306691</v>
+        <v>1.050837895902191</v>
       </c>
       <c r="J6">
-        <v>1.051571667723153</v>
+        <v>1.043424497323243</v>
       </c>
       <c r="K6">
-        <v>1.050688946510774</v>
+        <v>1.046540664402291</v>
       </c>
       <c r="L6">
-        <v>1.062969200983289</v>
+        <v>1.04946544717777</v>
       </c>
       <c r="M6">
-        <v>1.070165629313197</v>
+        <v>1.052601541880126</v>
       </c>
       <c r="N6">
-        <v>1.053065020108277</v>
+        <v>1.044906279791904</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.046893301402109</v>
+        <v>1.023723641535461</v>
       </c>
       <c r="D7">
-        <v>1.048058456266698</v>
+        <v>1.036054494393616</v>
       </c>
       <c r="E7">
-        <v>1.060286103831992</v>
+        <v>1.038697683912245</v>
       </c>
       <c r="F7">
-        <v>1.067454689555039</v>
+        <v>1.041695667712433</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041956364503877</v>
+        <v>1.050409670477503</v>
       </c>
       <c r="J7">
-        <v>1.051371319048068</v>
+        <v>1.042533488281592</v>
       </c>
       <c r="K7">
-        <v>1.050511621738212</v>
+        <v>1.045733546104958</v>
       </c>
       <c r="L7">
-        <v>1.06270949047466</v>
+        <v>1.048347608852428</v>
       </c>
       <c r="M7">
-        <v>1.069860958719291</v>
+        <v>1.051312775834561</v>
       </c>
       <c r="N7">
-        <v>1.052864386915092</v>
+        <v>1.044014005415214</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.045591584238212</v>
+        <v>1.017614103105046</v>
       </c>
       <c r="D8">
-        <v>1.04706849494808</v>
+        <v>1.031509924379086</v>
       </c>
       <c r="E8">
-        <v>1.058955246979747</v>
+        <v>1.03282243619698</v>
       </c>
       <c r="F8">
-        <v>1.065937946477279</v>
+        <v>1.035090908208782</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041632512240036</v>
+        <v>1.048563028072278</v>
       </c>
       <c r="J8">
-        <v>1.05053324725423</v>
+        <v>1.038723409987125</v>
       </c>
       <c r="K8">
-        <v>1.0497694369043</v>
+        <v>1.042279341348689</v>
       </c>
       <c r="L8">
-        <v>1.06162412293622</v>
+        <v>1.043575429592282</v>
       </c>
       <c r="M8">
-        <v>1.068588346066343</v>
+        <v>1.045815638345738</v>
       </c>
       <c r="N8">
-        <v>1.052025124963178</v>
+        <v>1.040198516372548</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.043300088605116</v>
+        <v>1.006331388975539</v>
       </c>
       <c r="D9">
-        <v>1.04532544140459</v>
+        <v>1.023139299416586</v>
       </c>
       <c r="E9">
-        <v>1.056615517756782</v>
+        <v>1.022015202238728</v>
       </c>
       <c r="F9">
-        <v>1.06327301206961</v>
+        <v>1.022948101109145</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04105373661432</v>
+        <v>1.045082746106141</v>
       </c>
       <c r="J9">
-        <v>1.049054052121931</v>
+        <v>1.031662533697616</v>
       </c>
       <c r="K9">
-        <v>1.048457895501874</v>
+        <v>1.035867790503202</v>
       </c>
       <c r="L9">
-        <v>1.059712279787817</v>
+        <v>1.034760917885152</v>
       </c>
       <c r="M9">
-        <v>1.066349115284687</v>
+        <v>1.035679518522209</v>
       </c>
       <c r="N9">
-        <v>1.050543829204125</v>
+        <v>1.033127612828814</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.041773989578015</v>
+        <v>0.9984214275853338</v>
       </c>
       <c r="D10">
-        <v>1.044164389510476</v>
+        <v>1.017289561007854</v>
       </c>
       <c r="E10">
-        <v>1.055059370950046</v>
+        <v>1.01446942371499</v>
       </c>
       <c r="F10">
-        <v>1.061501630812014</v>
+        <v>1.014472695851035</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040662454188921</v>
+        <v>1.042597707287149</v>
       </c>
       <c r="J10">
-        <v>1.048066333549057</v>
+        <v>1.026697816492085</v>
       </c>
       <c r="K10">
-        <v>1.04758106907214</v>
+        <v>1.031353509692174</v>
       </c>
       <c r="L10">
-        <v>1.058438226760607</v>
+        <v>1.028582251985358</v>
       </c>
       <c r="M10">
-        <v>1.064858522830827</v>
+        <v>1.028585467203762</v>
       </c>
       <c r="N10">
-        <v>1.049554707957586</v>
+        <v>1.028155845155389</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.041113546650917</v>
+        <v>0.9948943565721537</v>
       </c>
       <c r="D11">
-        <v>1.04366188529421</v>
+        <v>1.014686461324629</v>
       </c>
       <c r="E11">
-        <v>1.054386420047686</v>
+        <v>1.011112503822371</v>
       </c>
       <c r="F11">
-        <v>1.060735850697958</v>
+        <v>1.010702562141541</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040491739818414</v>
+        <v>1.041479454956013</v>
       </c>
       <c r="J11">
-        <v>1.047638269367153</v>
+        <v>1.024481089669544</v>
       </c>
       <c r="K11">
-        <v>1.047200815444883</v>
+        <v>1.029336627263455</v>
       </c>
       <c r="L11">
-        <v>1.057886674159865</v>
+        <v>1.025827853872681</v>
       </c>
       <c r="M11">
-        <v>1.064213613120532</v>
+        <v>1.025425427353491</v>
       </c>
       <c r="N11">
-        <v>1.049126035875443</v>
+        <v>1.025935970326499</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.040868284237976</v>
+        <v>0.9935680022826947</v>
       </c>
       <c r="D12">
-        <v>1.043475269564692</v>
+        <v>1.013708444439194</v>
       </c>
       <c r="E12">
-        <v>1.054136587436701</v>
+        <v>1.009851341274215</v>
       </c>
       <c r="F12">
-        <v>1.060451592368502</v>
+        <v>1.009286181925052</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040428135868493</v>
+        <v>1.041057456741894</v>
       </c>
       <c r="J12">
-        <v>1.047479211244053</v>
+        <v>1.023647092566677</v>
       </c>
       <c r="K12">
-        <v>1.047059485360902</v>
+        <v>1.028577641924869</v>
       </c>
       <c r="L12">
-        <v>1.057681821495865</v>
+        <v>1.024792207927516</v>
       </c>
       <c r="M12">
-        <v>1.063974144370618</v>
+        <v>1.024237609914268</v>
       </c>
       <c r="N12">
-        <v>1.048966751871564</v>
+        <v>1.025100788852084</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.040920891343439</v>
+        <v>0.993853260322473</v>
       </c>
       <c r="D13">
-        <v>1.04351529759783</v>
+        <v>1.013918744807059</v>
       </c>
       <c r="E13">
-        <v>1.054190171429878</v>
+        <v>1.010122523395622</v>
       </c>
       <c r="F13">
-        <v>1.060512558301362</v>
+        <v>1.009590739279955</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040441787862706</v>
+        <v>1.041148281640532</v>
       </c>
       <c r="J13">
-        <v>1.047513332280393</v>
+        <v>1.023826476912428</v>
       </c>
       <c r="K13">
-        <v>1.047089805070851</v>
+        <v>1.028740899665414</v>
       </c>
       <c r="L13">
-        <v>1.057725762242938</v>
+        <v>1.025014936292515</v>
       </c>
       <c r="M13">
-        <v>1.064025507630977</v>
+        <v>1.024493049144671</v>
       </c>
       <c r="N13">
-        <v>1.049000921363689</v>
+        <v>1.025280427944182</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.041093272050037</v>
+        <v>0.9947850566220695</v>
       </c>
       <c r="D14">
-        <v>1.043646458826191</v>
+        <v>1.014605848249564</v>
       </c>
       <c r="E14">
-        <v>1.054365766124566</v>
+        <v>1.011008551324284</v>
       </c>
       <c r="F14">
-        <v>1.060712350009697</v>
+        <v>1.01058581539987</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040486486232403</v>
+        <v>1.041444709429339</v>
       </c>
       <c r="J14">
-        <v>1.047625122713726</v>
+        <v>1.024412370861236</v>
       </c>
       <c r="K14">
-        <v>1.047189134827132</v>
+        <v>1.029274092667356</v>
       </c>
       <c r="L14">
-        <v>1.057869740594507</v>
+        <v>1.025742506927087</v>
       </c>
       <c r="M14">
-        <v>1.064193816936801</v>
+        <v>1.025327533059926</v>
       </c>
       <c r="N14">
-        <v>1.04911287055226</v>
+        <v>1.0258671539296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.0411994888527</v>
+        <v>0.9953569860729014</v>
       </c>
       <c r="D15">
-        <v>1.04372727647675</v>
+        <v>1.015027705316469</v>
       </c>
       <c r="E15">
-        <v>1.054473973226239</v>
+        <v>1.011552548787933</v>
       </c>
       <c r="F15">
-        <v>1.060835472996158</v>
+        <v>1.011196767613026</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040514000802166</v>
+        <v>1.041626460942469</v>
       </c>
       <c r="J15">
-        <v>1.047693993076972</v>
+        <v>1.024771937083292</v>
       </c>
       <c r="K15">
-        <v>1.047250323660221</v>
+        <v>1.02960129338896</v>
       </c>
       <c r="L15">
-        <v>1.057958452875779</v>
+        <v>1.026189104614825</v>
       </c>
       <c r="M15">
-        <v>1.064297528389674</v>
+        <v>1.025839801765749</v>
       </c>
       <c r="N15">
-        <v>1.049181838719322</v>
+        <v>1.026227230776934</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.041817828771172</v>
+        <v>0.9986532817567495</v>
       </c>
       <c r="D16">
-        <v>1.04419774416368</v>
+        <v>1.017460794640195</v>
       </c>
       <c r="E16">
-        <v>1.055104050874677</v>
+        <v>1.014690257860494</v>
       </c>
       <c r="F16">
-        <v>1.061552479256115</v>
+        <v>1.014720718007806</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040673756855712</v>
+        <v>1.042671008567222</v>
       </c>
       <c r="J16">
-        <v>1.04809473488056</v>
+        <v>1.026843476790147</v>
       </c>
       <c r="K16">
-        <v>1.047606293032174</v>
+        <v>1.031486013102399</v>
       </c>
       <c r="L16">
-        <v>1.058474834067507</v>
+        <v>1.028763331774807</v>
       </c>
       <c r="M16">
-        <v>1.064901334486494</v>
+        <v>1.02879326394589</v>
       </c>
       <c r="N16">
-        <v>1.049583149622237</v>
+        <v>1.028301712307782</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.042205795739118</v>
+        <v>1.00069302465225</v>
       </c>
       <c r="D17">
-        <v>1.044492920654705</v>
+        <v>1.018967840445105</v>
       </c>
       <c r="E17">
-        <v>1.05549951544116</v>
+        <v>1.016633939250041</v>
       </c>
       <c r="F17">
-        <v>1.06200257041154</v>
+        <v>1.01690373255759</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040773623351147</v>
+        <v>1.043314727543154</v>
       </c>
       <c r="J17">
-        <v>1.048346009364312</v>
+        <v>1.028124596970462</v>
       </c>
       <c r="K17">
-        <v>1.047829427737571</v>
+        <v>1.032651272122013</v>
       </c>
       <c r="L17">
-        <v>1.058798778950752</v>
+        <v>1.03035646846636</v>
       </c>
       <c r="M17">
-        <v>1.065280227315286</v>
+        <v>1.030621730365795</v>
       </c>
       <c r="N17">
-        <v>1.049834780944577</v>
+        <v>1.0295846518257</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.042432125802436</v>
+        <v>1.00187299568446</v>
       </c>
       <c r="D18">
-        <v>1.044665115105105</v>
+        <v>1.019840149723746</v>
       </c>
       <c r="E18">
-        <v>1.055730267232905</v>
+        <v>1.017759072676536</v>
       </c>
       <c r="F18">
-        <v>1.062265220559288</v>
+        <v>1.018167443683256</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04083174964299</v>
+        <v>1.043686145385256</v>
       </c>
       <c r="J18">
-        <v>1.048492537260649</v>
+        <v>1.028865429765124</v>
       </c>
       <c r="K18">
-        <v>1.047959522249367</v>
+        <v>1.033324984199148</v>
       </c>
       <c r="L18">
-        <v>1.058987742146691</v>
+        <v>1.031278144208308</v>
       </c>
       <c r="M18">
-        <v>1.065501279886083</v>
+        <v>1.031679782657329</v>
       </c>
       <c r="N18">
-        <v>1.049981516927334</v>
+        <v>1.030326536687905</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.042509304519496</v>
+        <v>1.002273703800415</v>
       </c>
       <c r="D19">
-        <v>1.04472383283868</v>
+        <v>1.020136460726536</v>
       </c>
       <c r="E19">
-        <v>1.0558089618645</v>
+        <v>1.018141281583834</v>
       </c>
       <c r="F19">
-        <v>1.062354797749288</v>
+        <v>1.018596734475964</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040851548141615</v>
+        <v>1.043812110268042</v>
       </c>
       <c r="J19">
-        <v>1.048542493324681</v>
+        <v>1.029116961037262</v>
       </c>
       <c r="K19">
-        <v>1.048003871571051</v>
+        <v>1.033553705197229</v>
       </c>
       <c r="L19">
-        <v>1.059052175673585</v>
+        <v>1.031591146737471</v>
       </c>
       <c r="M19">
-        <v>1.065576661706515</v>
+        <v>1.032039138617575</v>
       </c>
       <c r="N19">
-        <v>1.050031543934707</v>
+        <v>1.0305784251633</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.042164166882183</v>
+        <v>1.00047519718409</v>
       </c>
       <c r="D20">
-        <v>1.044461248626096</v>
+        <v>1.018806848313692</v>
       </c>
       <c r="E20">
-        <v>1.055457077143754</v>
+        <v>1.016426294005442</v>
       </c>
       <c r="F20">
-        <v>1.061954267518311</v>
+        <v>1.016670515653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040762921460419</v>
+        <v>1.04324608377162</v>
       </c>
       <c r="J20">
-        <v>1.048319053737782</v>
+        <v>1.027987813058783</v>
       </c>
       <c r="K20">
-        <v>1.047805493303535</v>
+        <v>1.032526871112925</v>
       </c>
       <c r="L20">
-        <v>1.058764021525155</v>
+        <v>1.03018632808034</v>
       </c>
       <c r="M20">
-        <v>1.065239570444398</v>
+        <v>1.030426433836547</v>
       </c>
       <c r="N20">
-        <v>1.049807787037966</v>
+        <v>1.029447673665176</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.041042508694773</v>
+        <v>0.9945111219484326</v>
       </c>
       <c r="D21">
-        <v>1.043607834093606</v>
+        <v>1.014403824919608</v>
       </c>
       <c r="E21">
-        <v>1.054314054234775</v>
+        <v>1.01074803835725</v>
       </c>
       <c r="F21">
-        <v>1.060653511180836</v>
+        <v>1.010293239334011</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040473329003202</v>
+        <v>1.041357604256249</v>
       </c>
       <c r="J21">
-        <v>1.047592204760857</v>
+        <v>1.024240137052419</v>
       </c>
       <c r="K21">
-        <v>1.047159887086164</v>
+        <v>1.029117355925538</v>
       </c>
       <c r="L21">
-        <v>1.057827342043906</v>
+        <v>1.025528607318386</v>
       </c>
       <c r="M21">
-        <v>1.064144251846062</v>
+        <v>1.025082192391728</v>
       </c>
       <c r="N21">
-        <v>1.049079905852123</v>
+        <v>1.025694675529019</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.040337598864458</v>
+        <v>0.9906667867810149</v>
       </c>
       <c r="D22">
-        <v>1.043071471304322</v>
+        <v>1.011570875836477</v>
       </c>
       <c r="E22">
-        <v>1.05359615036186</v>
+        <v>1.007094989465758</v>
       </c>
       <c r="F22">
-        <v>1.059836753214341</v>
+        <v>1.006190598860659</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040290134035522</v>
+        <v>1.040131727601383</v>
       </c>
       <c r="J22">
-        <v>1.047134882004911</v>
+        <v>1.021822160943165</v>
       </c>
       <c r="K22">
-        <v>1.046753465972763</v>
+        <v>1.02691654435995</v>
       </c>
       <c r="L22">
-        <v>1.0572385218787</v>
+        <v>1.022527191463571</v>
       </c>
       <c r="M22">
-        <v>1.063456041289264</v>
+        <v>1.021640408299387</v>
       </c>
       <c r="N22">
-        <v>1.048621933645408</v>
+        <v>1.023273265616345</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.040711254387806</v>
+        <v>0.9927140228059741</v>
       </c>
       <c r="D23">
-        <v>1.043355786923816</v>
+        <v>1.013079001476431</v>
       </c>
       <c r="E23">
-        <v>1.053976652591557</v>
+        <v>1.009039681040128</v>
       </c>
       <c r="F23">
-        <v>1.060269629686126</v>
+        <v>1.008374629035964</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040387354919737</v>
+        <v>1.040785340422027</v>
       </c>
       <c r="J23">
-        <v>1.047377348026516</v>
+        <v>1.023110013458449</v>
       </c>
       <c r="K23">
-        <v>1.046968964998513</v>
+        <v>1.028088821620511</v>
       </c>
       <c r="L23">
-        <v>1.05755065627896</v>
+        <v>1.024125448678435</v>
       </c>
       <c r="M23">
-        <v>1.063820831047177</v>
+        <v>1.023472977269967</v>
       </c>
       <c r="N23">
-        <v>1.048864743996575</v>
+        <v>1.024562947029919</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.042182977060983</v>
+        <v>1.000573654185718</v>
       </c>
       <c r="D24">
-        <v>1.044475559781503</v>
+        <v>1.018879614468668</v>
       </c>
       <c r="E24">
-        <v>1.055476252924032</v>
+        <v>1.016520146419326</v>
       </c>
       <c r="F24">
-        <v>1.061976093146985</v>
+        <v>1.016775925946023</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040767757567762</v>
+        <v>1.043277113439751</v>
       </c>
       <c r="J24">
-        <v>1.04833123393713</v>
+        <v>1.028049639629662</v>
       </c>
       <c r="K24">
-        <v>1.047816308417635</v>
+        <v>1.032583100968616</v>
       </c>
       <c r="L24">
-        <v>1.058779726873703</v>
+        <v>1.030263230553823</v>
       </c>
       <c r="M24">
-        <v>1.065257941377287</v>
+        <v>1.030514706022675</v>
       </c>
       <c r="N24">
-        <v>1.049819984534594</v>
+        <v>1.029509588036878</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.043892220899341</v>
+        <v>1.009313506741756</v>
       </c>
       <c r="D25">
-        <v>1.045775892986519</v>
+        <v>1.025348795809973</v>
       </c>
       <c r="E25">
-        <v>1.05721974907675</v>
+        <v>1.024866476174037</v>
       </c>
       <c r="F25">
-        <v>1.063961039372963</v>
+        <v>1.026151136497616</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041204322769693</v>
+        <v>1.046010551964295</v>
       </c>
       <c r="J25">
-        <v>1.049436741622925</v>
+        <v>1.033531448695426</v>
       </c>
       <c r="K25">
-        <v>1.048797397413198</v>
+        <v>1.037565947848184</v>
       </c>
       <c r="L25">
-        <v>1.060206449519709</v>
+        <v>1.037090657474045</v>
       </c>
       <c r="M25">
-        <v>1.066927619317483</v>
+        <v>1.038356613894101</v>
       </c>
       <c r="N25">
-        <v>1.050927062168106</v>
+        <v>1.034999181900288</v>
       </c>
     </row>
   </sheetData>
